--- a/com.sevenrmartsupermarket/src/main/resources/excelfiles/AdminUserCredentials.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/excelfiles/AdminUserCredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\git\sevenrmartsupermarket\com.sevenrmartsupermarket\src\main\resources\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A75410-D6AD-46F2-944C-DFDFB17E145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89FA7C-986A-42F5-9FB8-B105BE0F960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1476" yWindow="840" windowWidth="17280" windowHeight="8880" xr2:uid="{93BAEB4F-2EDC-4AE2-9FCB-BD11CD2207B1}"/>
   </bookViews>
@@ -54,25 +54,25 @@
     <t>Flowers</t>
   </si>
   <si>
-    <t>PrabhenduRT</t>
-  </si>
-  <si>
-    <t>NirvanRD</t>
-  </si>
-  <si>
-    <t>Munnu.Vinu</t>
-  </si>
-  <si>
-    <t>Sindu.sanu</t>
-  </si>
-  <si>
-    <t>Richu.Sam</t>
-  </si>
-  <si>
-    <t>Sree.Hary</t>
-  </si>
-  <si>
-    <t>Jacob.Vincent</t>
+    <t>NarayanRT</t>
+  </si>
+  <si>
+    <t>SayuRD</t>
+  </si>
+  <si>
+    <t>Lucose.Vinu</t>
+  </si>
+  <si>
+    <t>Silly.sanu</t>
+  </si>
+  <si>
+    <t>Reenu.Sam</t>
+  </si>
+  <si>
+    <t>Sreelu.Hary</t>
+  </si>
+  <si>
+    <t>Namitha.Vincent</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/com.sevenrmartsupermarket/src/main/resources/excelfiles/AdminUserCredentials.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/excelfiles/AdminUserCredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\git\sevenrmartsupermarket\com.sevenrmartsupermarket\src\main\resources\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89FA7C-986A-42F5-9FB8-B105BE0F960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317E4DD-2603-4EF1-A150-A75785C266D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1476" yWindow="840" windowWidth="17280" windowHeight="8880" xr2:uid="{93BAEB4F-2EDC-4AE2-9FCB-BD11CD2207B1}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Reenu.Sam</t>
   </si>
   <si>
-    <t>Sreelu.Hary</t>
-  </si>
-  <si>
     <t>Namitha.Vincent</t>
+  </si>
+  <si>
+    <t>Sreelu.Harry</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
